--- a/docs/shrcore/shr-core-AdverseEvent-model.xlsx
+++ b/docs/shrcore/shr-core-AdverseEvent-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="116">
   <si>
     <t>Path</t>
   </si>
@@ -333,7 +333,7 @@
     <t>http://hl7.org/fhir/ValueSet/adverse-event-outcome</t>
   </si>
   <si>
-    <t>shr-core-AdverseEvent-model.humanAuthor[x]</t>
+    <t>shr-core-AdverseEvent-model.personAuthor[x]</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RelatedPerson-model]]}
@@ -350,11 +350,7 @@
 </t>
   </si>
   <si>
-    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550369
-</t>
+    <t>An entity (usually a Practitioner, Patient, or Organization but potentially a device or other entity) that participates in a healthcare task or activity. The participant is not necessarily the performer, and the role (ParticipationType), the ParticipationPeriod, and other details of the participation are by the Participation structure.</t>
   </si>
   <si>
     <t>shr-core-AdverseEvent-model.potentialCause</t>
@@ -533,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ26"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2776,7 +2772,7 @@
         <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -2808,7 +2804,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2831,13 +2827,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>110</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -2888,7 +2884,7 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
@@ -2905,7 +2901,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -2928,13 +2924,13 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="K25" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="L25" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -2985,7 +2981,7 @@
         <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
@@ -3002,7 +2998,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3025,13 +3021,13 @@
         <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3082,7 +3078,7 @@
         <v>36</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>37</v>
